--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.322843666666667</v>
+        <v>3.034382333333333</v>
       </c>
       <c r="H2">
-        <v>12.968531</v>
+        <v>9.103147</v>
       </c>
       <c r="I2">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663805</v>
       </c>
       <c r="J2">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663806</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N2">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q2">
-        <v>35.92002246256455</v>
+        <v>24.37554021471345</v>
       </c>
       <c r="R2">
-        <v>323.280202163081</v>
+        <v>219.379861932421</v>
       </c>
       <c r="S2">
-        <v>0.009780708234613982</v>
+        <v>0.005891002072105427</v>
       </c>
       <c r="T2">
-        <v>0.009780708234613982</v>
+        <v>0.005891002072105429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.322843666666667</v>
+        <v>3.034382333333333</v>
       </c>
       <c r="H3">
-        <v>12.968531</v>
+        <v>9.103147</v>
       </c>
       <c r="I3">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663805</v>
       </c>
       <c r="J3">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P3">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q3">
-        <v>160.6083009795403</v>
+        <v>112.7375932738257</v>
       </c>
       <c r="R3">
-        <v>1445.474708815863</v>
+        <v>1014.638339464431</v>
       </c>
       <c r="S3">
-        <v>0.04373223690422485</v>
+        <v>0.02724605853778791</v>
       </c>
       <c r="T3">
-        <v>0.04373223690422484</v>
+        <v>0.02724605853778791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.322843666666667</v>
+        <v>3.034382333333333</v>
       </c>
       <c r="H4">
-        <v>12.968531</v>
+        <v>9.103147</v>
       </c>
       <c r="I4">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663805</v>
       </c>
       <c r="J4">
-        <v>0.06371657946635806</v>
+        <v>0.04287206612663806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N4">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O4">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P4">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q4">
-        <v>37.47323460147678</v>
+        <v>40.28109573878645</v>
       </c>
       <c r="R4">
-        <v>337.259111413291</v>
+        <v>362.529861649078</v>
       </c>
       <c r="S4">
-        <v>0.01020363432751923</v>
+        <v>0.009735005516744716</v>
       </c>
       <c r="T4">
-        <v>0.01020363432751923</v>
+        <v>0.009735005516744718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>87.24073800000001</v>
       </c>
       <c r="I5">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="J5">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N5">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q5">
-        <v>241.6379517935153</v>
+        <v>233.6049409594594</v>
       </c>
       <c r="R5">
-        <v>2174.741566141638</v>
+        <v>2102.444468635134</v>
       </c>
       <c r="S5">
-        <v>0.06579590275493817</v>
+        <v>0.0564568899447638</v>
       </c>
       <c r="T5">
-        <v>0.06579590275493816</v>
+        <v>0.05645688994476381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>87.24073800000001</v>
       </c>
       <c r="I6">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="J6">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P6">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q6">
         <v>1080.429750014186</v>
@@ -818,10 +818,10 @@
         <v>9723.867750127674</v>
       </c>
       <c r="S6">
-        <v>0.2941915797491182</v>
+        <v>0.261114783099495</v>
       </c>
       <c r="T6">
-        <v>0.2941915797491181</v>
+        <v>0.261114783099495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>87.24073800000001</v>
       </c>
       <c r="I7">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="J7">
-        <v>0.4286284557195201</v>
+        <v>0.4108678777210459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N7">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O7">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P7">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q7">
-        <v>252.0865811154687</v>
+        <v>386.0371055966014</v>
       </c>
       <c r="R7">
-        <v>2268.779230039218</v>
+        <v>3474.333950369412</v>
       </c>
       <c r="S7">
-        <v>0.06864097321546378</v>
+        <v>0.09329620467678709</v>
       </c>
       <c r="T7">
-        <v>0.06864097321546375</v>
+        <v>0.09329620467678711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.44179</v>
+        <v>38.66298066666667</v>
       </c>
       <c r="H8">
-        <v>103.32537</v>
+        <v>115.988942</v>
       </c>
       <c r="I8">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="J8">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N8">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q8">
-        <v>286.1888992170966</v>
+        <v>310.5841441627896</v>
       </c>
       <c r="R8">
-        <v>2575.70009295387</v>
+        <v>2795.257297465106</v>
       </c>
       <c r="S8">
-        <v>0.07792673643634244</v>
+        <v>0.07506097590902534</v>
       </c>
       <c r="T8">
-        <v>0.07792673643634244</v>
+        <v>0.07506097590902536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.44179</v>
+        <v>38.66298066666667</v>
       </c>
       <c r="H9">
-        <v>103.32537</v>
+        <v>115.988942</v>
       </c>
       <c r="I9">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="J9">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P9">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q9">
-        <v>1279.62929060989</v>
+        <v>1436.460837934107</v>
       </c>
       <c r="R9">
-        <v>11516.66361548901</v>
+        <v>12928.14754140697</v>
       </c>
       <c r="S9">
-        <v>0.3484318739768357</v>
+        <v>0.3471592300407856</v>
       </c>
       <c r="T9">
-        <v>0.3484318739768356</v>
+        <v>0.3471592300407856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.44179</v>
+        <v>38.66298066666667</v>
       </c>
       <c r="H10">
-        <v>103.32537</v>
+        <v>115.988942</v>
       </c>
       <c r="I10">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="J10">
-        <v>0.5076549648141219</v>
+        <v>0.546260056152316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N10">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O10">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P10">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q10">
-        <v>298.5639491700633</v>
+        <v>513.2468669727676</v>
       </c>
       <c r="R10">
-        <v>2687.07554253057</v>
+        <v>4619.221802754909</v>
       </c>
       <c r="S10">
-        <v>0.08129635440094378</v>
+        <v>0.124039850202505</v>
       </c>
       <c r="T10">
-        <v>0.08129635440094375</v>
+        <v>0.124039850202505</v>
       </c>
     </row>
   </sheetData>
